--- a/biology/Médecine/Ostéo-onychodysplasie/Ostéo-onychodysplasie.xlsx
+++ b/biology/Médecine/Ostéo-onychodysplasie/Ostéo-onychodysplasie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ost%C3%A9o-onychodysplasie</t>
+          <t>Ostéo-onychodysplasie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Nail-Patella syndrome, ou ostéo-onychodysplasie, est une maladie génétique qui se caractérise par l'atteinte des ongles, des genoux, des coudes et des ailes iliaques. 
 L'atteinte de l'ongle est la plus constante : ongle absent, peu développé ou dystrophique.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ost%C3%A9o-onychodysplasie</t>
+          <t>Ostéo-onychodysplasie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Onycho-ostéo-dysplasie
 Syndrome de Turner-Kieser
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ost%C3%A9o-onychodysplasie</t>
+          <t>Ostéo-onychodysplasie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène LMX1B (en) 602575 situé sur le chromosome 9
 </t>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ost%C3%A9o-onychodysplasie</t>
+          <t>Ostéo-onychodysplasie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Incidence et prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Prévalence évaluée à 1 sur 50 000 mais probablement plus élevée. Cette pathologie atteint toutes les populations.
 </t>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ost%C3%A9o-onychodysplasie</t>
+          <t>Ostéo-onychodysplasie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,6 +631,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ost%C3%A9o-onychodysplasie</t>
+          <t>Ostéo-onychodysplasie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,6 +659,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,7 +668,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ost%C3%A9o-onychodysplasie</t>
+          <t>Ostéo-onychodysplasie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -666,8 +688,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode de transmission
-Transmission autosomique dominante
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique dominante
 </t>
         </is>
       </c>
